--- a/ceramics2018.xlsx
+++ b/ceramics2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2018_조사광물개요" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <sheet name="2018_장석_성분_별첨" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="2018_장석_함유량_별첨" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="2018_진사유_별첨" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="2018_조사광산" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="85">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -560,7 +561,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -707,7 +708,7 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -717,7 +718,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,7 +829,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,7 +1378,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,8 +1504,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1863,7 +1864,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2080,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,7 +2272,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,4 +2408,157 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I32" activeCellId="0" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>